--- a/evaluation/Results.xlsx
+++ b/evaluation/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="0" windowWidth="25040" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Allgemein" sheetId="1" r:id="rId1"/>
@@ -3015,12 +3015,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -3368,8 +3368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4580,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
